--- a/data/en/WasteWater_ReclaimedWater.xlsx
+++ b/data/en/WasteWater_ReclaimedWater.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizaguaen\data\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549F69F4-5E90-4C89-B588-B5817502AFD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2891ABC8-4EE3-4647-B313-44E6F538F408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8403A874-7223-4B91-BB02-E9EACE54EAC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8403A874-7223-4B91-BB02-E9EACE54EAC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Wastewater_Treated" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
   <si>
     <r>
       <t>(10</t>
@@ -341,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -388,6 +388,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -463,7 +466,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="2733674" cy="590550"/>
+          <a:ext cx="2794634" cy="590550"/>
           <a:chOff x="571501" y="47625"/>
           <a:chExt cx="2733674" cy="590550"/>
         </a:xfrm>
@@ -611,7 +614,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="2733674" cy="590550"/>
+          <a:ext cx="2806064" cy="590550"/>
           <a:chOff x="571501" y="47625"/>
           <a:chExt cx="2733674" cy="590550"/>
         </a:xfrm>
@@ -1025,113 +1028,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8B7E92-B75B-420B-BB30-85873D3162DA}">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="15" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="2" customWidth="1"/>
     <col min="16" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" style="2" customWidth="1"/>
     <col min="18" max="18" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" style="2" customWidth="1"/>
     <col min="20" max="20" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" customWidth="1"/>
     <col min="22" max="22" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.5546875" style="2" customWidth="1"/>
     <col min="24" max="24" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14" style="2" customWidth="1"/>
     <col min="26" max="26" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.28515625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="15.33203125" style="2" customWidth="1"/>
     <col min="28" max="28" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14" style="2" customWidth="1"/>
     <col min="30" max="30" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="11.85546875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="2"/>
+    <col min="31" max="31" width="14.88671875" style="2" customWidth="1"/>
+    <col min="32" max="32" width="11.88671875" style="2" customWidth="1"/>
+    <col min="33" max="33" width="13.88671875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="12.33203125" style="2" customWidth="1"/>
+    <col min="35" max="35" width="14.77734375" style="2" customWidth="1"/>
+    <col min="36" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="12" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:35" s="12" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="11"/>
     </row>
-    <row r="2" spans="1:33" s="15" customFormat="1">
+    <row r="2" spans="1:35" s="15" customFormat="1">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:33" s="16" customFormat="1" ht="12.75">
+    <row r="3" spans="1:35" s="16" customFormat="1" ht="13.8">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:33" ht="17.25" customHeight="1">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:35" ht="17.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:33" ht="45.75" customHeight="1">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:35" ht="45.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:35">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -1142,91 +1147,96 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:35">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <v>2003</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20">
+      <c r="C10" s="22"/>
+      <c r="D10" s="21">
         <f>+B10+1</f>
         <v>2004</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20">
+      <c r="E10" s="22"/>
+      <c r="F10" s="21">
         <f t="shared" ref="F10" si="0">+D10+1</f>
         <v>2005</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20">
+      <c r="G10" s="22"/>
+      <c r="H10" s="21">
         <f t="shared" ref="H10" si="1">+F10+1</f>
         <v>2006</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="20">
+      <c r="I10" s="22"/>
+      <c r="J10" s="21">
         <f t="shared" ref="J10" si="2">+H10+1</f>
         <v>2007</v>
       </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="20">
+      <c r="K10" s="22"/>
+      <c r="L10" s="21">
         <f t="shared" ref="L10" si="3">+J10+1</f>
         <v>2008</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="20">
+      <c r="M10" s="22"/>
+      <c r="N10" s="21">
         <f t="shared" ref="N10" si="4">+L10+1</f>
         <v>2009</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="20">
+      <c r="O10" s="22"/>
+      <c r="P10" s="21">
         <f t="shared" ref="P10" si="5">+N10+1</f>
         <v>2010</v>
       </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="20">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="21">
         <f t="shared" ref="R10" si="6">+P10+1</f>
         <v>2011</v>
       </c>
-      <c r="S10" s="21"/>
-      <c r="T10" s="20">
+      <c r="S10" s="22"/>
+      <c r="T10" s="21">
         <f t="shared" ref="T10" si="7">+R10+1</f>
         <v>2012</v>
       </c>
-      <c r="U10" s="21"/>
-      <c r="V10" s="20">
+      <c r="U10" s="22"/>
+      <c r="V10" s="21">
         <f t="shared" ref="V10" si="8">+T10+1</f>
         <v>2013</v>
       </c>
-      <c r="W10" s="21"/>
-      <c r="X10" s="20">
+      <c r="W10" s="22"/>
+      <c r="X10" s="21">
         <f t="shared" ref="X10" si="9">+V10+1</f>
         <v>2014</v>
       </c>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="20">
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="21">
         <f t="shared" ref="Z10" si="10">+X10+1</f>
         <v>2015</v>
       </c>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="20">
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="21">
         <f t="shared" ref="AB10" si="11">+Z10+1</f>
         <v>2016</v>
       </c>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="20">
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="21">
         <f t="shared" ref="AD10" si="12">+AB10+1</f>
         <v>2017</v>
       </c>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="20">
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="21">
         <f t="shared" ref="AF10" si="13">+AD10+1</f>
         <v>2018</v>
       </c>
-      <c r="AG10" s="21"/>
-    </row>
-    <row r="11" spans="1:33" ht="77.25" customHeight="1">
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="21">
+        <f t="shared" ref="AH10" si="14">+AF10+1</f>
+        <v>2019</v>
+      </c>
+      <c r="AI10" s="22"/>
+    </row>
+    <row r="11" spans="1:35" ht="77.25" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1326,8 +1336,14 @@
       <c r="AG11" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AH11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1427,8 +1443,14 @@
       <c r="AG12" s="3">
         <v>11797.732</v>
       </c>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AH12" s="3">
+        <v>37690.936999999998</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>10879.859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1528,8 +1550,14 @@
       <c r="AG13" s="3">
         <v>7436.9110000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AH13" s="3">
+        <v>6909.4376741636661</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>7199.7419999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1629,8 +1657,14 @@
       <c r="AG14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AH14" s="3">
+        <v>12240.07</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
@@ -1643,83 +1677,83 @@
         <v>15702.200640000001</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15:Y15" si="14">+D12+D13+D14</f>
+        <f t="shared" ref="D15:Y15" si="15">+D12+D13+D14</f>
         <v>42797.320200000002</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16458.7608</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>41537.845000000001</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15442.583999999999</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>44684.948091000006</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>17130.851558999995</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>41673.14</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15764.579999999998</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45305.636391000007</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15179.464608999999</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47869.669959999999</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>18974.492040000001</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>52409.102720000003</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21276.315280000003</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>62134.370360000001</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21336.27764</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>58851.23350116799</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>19736.148498832015</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>64165.932957728204</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>20690.731042271796</v>
       </c>
       <c r="X15" s="3">
@@ -1727,43 +1761,51 @@
         <v>70972</v>
       </c>
       <c r="Y15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>22401</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" ref="Z15:AG15" si="15">+Z12+Z13+Z14</f>
+        <f t="shared" ref="Z15:AI15" si="16">+Z12+Z13+Z14</f>
         <v>60110.470229999999</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19215.315770000001</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>68829.142277499996</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21048.5524725</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>59419.548000000003</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18378.148000000001</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>60958.114000000001</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19234.643</v>
       </c>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AH15" s="3">
+        <f t="shared" si="16"/>
+        <v>56840.444674163664</v>
+      </c>
+      <c r="AI15" s="3">
+        <f t="shared" si="16"/>
+        <v>18079.600999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16"/>
@@ -1808,7 +1850,19 @@
       <c r="K21" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="V10:W10"/>
     <mergeCell ref="H10:I10"/>
@@ -1817,17 +1871,6 @@
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="R10:S10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AG10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1836,134 +1879,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA178A-8F60-41A4-973C-2117B460DD51}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="2" customWidth="1"/>
-    <col min="10" max="12" width="13.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="2" customWidth="1"/>
-    <col min="16" max="26" width="13.85546875" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="14.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="2" customWidth="1"/>
+    <col min="10" max="12" width="13.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="2" customWidth="1"/>
+    <col min="16" max="26" width="13.88671875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:21" s="12" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="11"/>
     </row>
-    <row r="2" spans="1:19" s="15" customFormat="1">
+    <row r="2" spans="1:21" s="15" customFormat="1">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:19" s="16" customFormat="1" ht="12.75">
+    <row r="3" spans="1:21" s="16" customFormat="1" ht="13.8">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
     </row>
-    <row r="5" spans="1:19" ht="49.5" customHeight="1">
+    <row r="5" spans="1:21" ht="49.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="1:19" ht="17.25" customHeight="1">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:21" ht="17.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="8"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:21">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="25">
         <v>2010</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25">
         <f>+B9+1</f>
         <v>2011</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <f>+D9+1</f>
         <v>2012</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25">
         <f>+F9+1</f>
         <v>2013</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <f>+H9+1</f>
         <v>2014</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25">
         <f>+J9+1</f>
         <v>2015</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24">
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
         <f>+L9+1</f>
         <v>2016</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25">
         <f>+N9+1</f>
         <v>2017</v>
       </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24">
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25">
         <f>+P9+1</f>
         <v>2018</v>
       </c>
-      <c r="S9" s="24"/>
-    </row>
-    <row r="10" spans="1:19" ht="75">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25">
+        <f>+R9+1</f>
+        <v>2019</v>
+      </c>
+      <c r="U9" s="25"/>
+    </row>
+    <row r="10" spans="1:21" ht="72">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -2021,8 +2069,14 @@
       <c r="S10" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -2080,32 +2134,38 @@
       <c r="S11" s="3">
         <v>15.533999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="3">
+        <v>1354.577</v>
+      </c>
+      <c r="U11" s="3">
+        <v>17.631999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:21">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:21">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:21">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -2208,18 +2268,19 @@
       <c r="E35" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
